--- a/data/data_sheets.xlsx
+++ b/data/data_sheets.xlsx
@@ -461,11 +461,7 @@
           <t>Acoustic control system for BOP operation</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -478,11 +474,7 @@
           <t>AIS physical shore stations</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -510,7 +502,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/6a9f1eb8cd5647959847f9d32783b09a/datasheet_asr_c50.pdf', 'https://www.kongsberg.com/contentassets/6a9f1eb8cd5647959847f9d32783b09a/datasheet_asrx50.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/6a9f1eb8cd5647959847f9d32783b09a/datasheet_asr_c50.pdf, https://www.kongsberg.com/contentassets/6a9f1eb8cd5647959847f9d32783b09a/datasheet_asrx50.pdf</t>
         </is>
       </c>
     </row>
@@ -527,7 +519,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/90db5b261a15439e8c200bfc2969308f/datasheet_blueinsight.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/90db5b261a15439e8c200bfc2969308f/datasheet_blueinsight.pdf</t>
         </is>
       </c>
     </row>
@@ -542,11 +534,7 @@
           <t>APOS - Operating station for HiPAP and HPR Acoustic positioning systems</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -574,7 +562,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/520f6e01da10469ea53f0398a179973e/km_datsheeta4_aquaculture-monitoring-system_210512.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/520f6e01da10469ea53f0398a179973e/km_datsheeta4_aquaculture-monitoring-system_210512.pdf</t>
         </is>
       </c>
     </row>
@@ -591,7 +579,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300.pdf', 'https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300s.pdf', 'https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300bf.pdf', 'https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_mfd307.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300.pdf, https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300s.pdf, https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_ais300bf.pdf, https://www.kongsberg.com/contentassets/abc742e411b04f1ab77096bc04194195/datasheet_mfd307.pdf</t>
         </is>
       </c>
     </row>
@@ -608,7 +596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/9a7a2014928540309caa9552b55e4b42/01.marine-robots-2p-03.09.21.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/9a7a2014928540309caa9552b55e4b42/01.marine-robots-2p-03.09.21.pdf</t>
         </is>
       </c>
     </row>
@@ -625,7 +613,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/8cf870df24534451afb5f54d171ba2ba/datasheet_hugin_edge.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/8cf870df24534451afb5f54d171ba2ba/datasheet_hugin_edge.pdf</t>
         </is>
       </c>
     </row>
@@ -642,7 +630,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/3a18a176bcca41e98b7f08eedf64e4e8/473631a_hugin_endurance_datasheet.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/3a18a176bcca41e98b7f08eedf64e4e8/473631a_hugin_endurance_datasheet.pdf</t>
         </is>
       </c>
     </row>
@@ -659,7 +647,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/hugin-superior.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/hugin-superior.pdf</t>
         </is>
       </c>
     </row>
@@ -676,7 +664,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/88df0cc7b3574a0ab3d1d0d560fae99b/datasheet_blueinsight.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/88df0cc7b3574a0ab3d1d0d560fae99b/datasheet_blueinsight.pdf</t>
         </is>
       </c>
     </row>
@@ -691,11 +679,7 @@
           <t>cNODE - Modem Embedable</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -708,11 +692,7 @@
           <t>cNODE - Modem Explorer</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -727,7 +707,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/35803c378c20453e86355c82ea7b84e7/494054a-cnode-mantis-data-sheet.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/35803c378c20453e86355c82ea7b84e7/494054a-cnode-mantis-data-sheet.pdf</t>
         </is>
       </c>
     </row>
@@ -744,7 +724,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/1de6d234d15c4a31a1b4387a05e5a2bb/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/1de6d234d15c4a31a1b4387a05e5a2bb/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -759,11 +739,7 @@
           <t>cNODE - Transponder, Embedable</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -778,7 +754,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -795,7 +771,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/c53798f980e143728356ea237560b3bb/461378a-cnode-explorer-inm.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/c53798f980e143728356ea237560b3bb/461378a-cnode-explorer-inm.pdf</t>
         </is>
       </c>
     </row>
@@ -810,11 +786,7 @@
           <t>cNODE IQAM - Intelligent data analysis and monitoring</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -827,11 +799,7 @@
           <t>cNODE Maxi - Transponder</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -846,7 +814,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -863,7 +831,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -880,7 +848,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -897,7 +865,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/407452f-cnode-minis-datasheet.pdf', 'https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/469265a-cnode-minis-p-datasheet.pdf', 'https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/467422a-cnode-minis-s-datasheet.pdf', 'https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/490531_a-cnode-minis-1.11-50v-datasheet.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/407452f-cnode-minis-datasheet.pdf, https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/469265a-cnode-minis-p-datasheet.pdf, https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/467422a-cnode-minis-s-datasheet.pdf, https://www.kongsberg.com/contentassets/3430e6ff5b7348c884fff37922f5aa63/490531_a-cnode-minis-1.11-50v-datasheet.pdf</t>
         </is>
       </c>
     </row>
@@ -914,7 +882,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/1dfb2762fb3f43749e0333e48174a49f/datasheet_blueinsight.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/1dfb2762fb3f43749e0333e48174a49f/datasheet_blueinsight.pdf</t>
         </is>
       </c>
     </row>
@@ -931,7 +899,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/57a857b841ea412b935571193488b6c7/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/57a857b841ea412b935571193488b6c7/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -948,7 +916,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -965,7 +933,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/688f970054854477a22ca6e844eaed11/datasheet_blueinsight.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/688f970054854477a22ca6e844eaed11/datasheet_blueinsight.pdf</t>
         </is>
       </c>
     </row>
@@ -982,7 +950,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/bb1c51497aac427ead65bcd68a658b3e/productsheet_dgnss_cm.pdf', 'https://www.kongsberg.com/contentassets/bb1c51497aac427ead65bcd68a658b3e/datasheet_drs-ims_500.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/bb1c51497aac427ead65bcd68a658b3e/productsheet_dgnss_cm.pdf, https://www.kongsberg.com/contentassets/bb1c51497aac427ead65bcd68a658b3e/datasheet_drs-ims_500.pdf</t>
         </is>
       </c>
     </row>
@@ -997,11 +965,7 @@
           <t>Domed Scanning Sonar</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1016,7 +980,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/das-system-dual-axis-scanning-sonar.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/das-system-dual-axis-scanning-sonar.pdf</t>
         </is>
       </c>
     </row>
@@ -1033,7 +997,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/fa9cd40ee299462dbda53e5e12f73de2/323029e-ea440-datasheet.pdf', 'https://www.kongsberg.com/contentassets/fa9cd40ee299462dbda53e5e12f73de2/418374d-ea440-splashproof-datasheet.pdf', 'https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea440-wide-band-hydrographic-echo-sounder-de.pdf', 'https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sonar-mosaic_datasheet_en.pdf', 'https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sonar-mosaic_datasheet_de.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/fa9cd40ee299462dbda53e5e12f73de2/323029e-ea440-datasheet.pdf, https://www.kongsberg.com/contentassets/fa9cd40ee299462dbda53e5e12f73de2/418374d-ea440-splashproof-datasheet.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea440-wide-band-hydrographic-echo-sounder-de.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sonar-mosaic_datasheet_en.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sonar-mosaic_datasheet_de.pdf</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1014,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/3fa11659a3d3438586f6349d5b122f0c/407202c-ea640-datasheet.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/3fa11659a3d3438586f6349d5b122f0c/407202c-ea640-datasheet.pdf</t>
         </is>
       </c>
     </row>
@@ -1065,11 +1029,7 @@
           <t>Echo sounder sweep system, MCU</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1097,7 +1057,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/ek80/sales/ek80p_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/ek80/sales/ek80p_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1074,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/ek80/sales/ek80p_flyer.pdf']</t>
+          <t>https://www.simrad.online/ek80/sales/ek80p_flyer.pdf</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1104,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/464489ae_hws_mc3xx_data_sheet_02.pdf', 'https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/446295c_sis5_data_sheet.pdf', 'https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/01.sis-remote-2p-26.05.21.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/464489ae_hws_mc3xx_data_sheet_02.pdf, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/446295c_sis5_data_sheet.pdf, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/01.sis-remote-2p-26.05.21.pdf</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1121,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/e8fa4f09f25f4b1e86eda52cc1355dc7/em-2040---mkii-data-sheet.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/e8fa4f09f25f4b1e86eda52cc1355dc7/em-2040---mkii-data-sheet.pdf</t>
         </is>
       </c>
     </row>
@@ -1176,11 +1136,7 @@
           <t xml:space="preserve">EM 2040 PHS Portable Hydrographic System </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1193,11 +1149,7 @@
           <t>EM 2040C MKII Multibeam echosounder, Max. 500 m</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1212,7 +1164,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/2b09d642b1604c78941086c6ce60a9b0/437136aj_em2040p_mk2_data_sheet.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/2b09d642b1604c78941086c6ce60a9b0/437136aj_em2040p_mk2_data_sheet.pdf</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1181,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/37b2b502e3d549d6ab66dcd5d551e750/463787aa_em304_mkii_data_sheet.pdf', 'https://www.kongsberg.com/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/464489ae_hws_mc3xx_data_sheet_02.pdf', 'https://www.kongsberg.com/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/446295c_sis5_data_sheet.pdf', 'https://www.kongsberg.com/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/01.sis-remote-2p-26.05.21.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/37b2b502e3d549d6ab66dcd5d551e750/463787aa_em304_mkii_data_sheet.pdf, https://www.kongsberg.com/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/464489ae_hws_mc3xx_data_sheet_02.pdf, https://www.kongsberg.com/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/446295c_sis5_data_sheet.pdf, https://www.kongsberg.com/contentassets/82c5f66cc036430d85e1b9edf32fbe0b/01.sis-remote-2p-26.05.21.pdf</t>
         </is>
       </c>
     </row>
@@ -1244,11 +1196,7 @@
           <t>EM 304 Multibeam echosounder, Max. 8000 m</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1263,7 +1211,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/datasheet_em_712.pdf', 'https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/464489ae_hws_mc3xx_data_sheet_02.pdf', 'https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/446295c_sis5_data_sheet.pdf', 'https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/01.sis-remote-2p-26.05.21.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/datasheet_em_712.pdf, https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/464489ae_hws_mc3xx_data_sheet_02.pdf, https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/446295c_sis5_data_sheet.pdf, https://www.kongsberg.com/contentassets/2c197a1f0a33461b9642276e31b67fb7/01.sis-remote-2p-26.05.21.pdf</t>
         </is>
       </c>
     </row>
@@ -1278,11 +1226,7 @@
           <t>Fish farm information transfer system</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1310,7 +1254,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/0d2751ec14f74850bf4106ace4472d5f/datasheet_seanav300.pdf', 'https://www.kongsberg.com/globalassets/maritime/snr-files/mfd/datasheet_mfd307_aug18.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/0d2751ec14f74850bf4106ace4472d5f/datasheet_seanav300.pdf, https://www.kongsberg.com/globalassets/maritime/snr-files/mfd/datasheet_mfd307_aug18.pdf</t>
         </is>
       </c>
     </row>
@@ -1325,11 +1269,7 @@
           <t>GNSS/DGNSS Position Sensors</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1344,7 +1284,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/7162715d5e3941838b97b22c33b57aae/110-0042313a_datasheet_darps232_jun23.pdf', 'https://www.kongsberg.com/contentassets/7162715d5e3941838b97b22c33b57aae/datasheet_darps900b.pdf', 'https://www.kongsberg.com/contentassets/7162715d5e3941838b97b22c33b57aae/datasheet_dgnss3710.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/7162715d5e3941838b97b22c33b57aae/110-0042313a_datasheet_darps232_jun23.pdf, https://www.kongsberg.com/contentassets/7162715d5e3941838b97b22c33b57aae/datasheet_darps900b.pdf, https://www.kongsberg.com/contentassets/7162715d5e3941838b97b22c33b57aae/datasheet_dgnss3710.pdf</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1301,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/f8c817520a594f678aa232adbc73a4f8/datasheet_seapos300.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/f8c817520a594f678aa232adbc73a4f8/datasheet_seapos300.pdf</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1318,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/908f79d5012e4bfba5345fa62e5ba41c/301416aa-hain-position-reference-pd.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/908f79d5012e4bfba5345fa62e5ba41c/301416aa-hain-position-reference-pd.pdf</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1335,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/587a526dc451456eb14a0eb82c31554d/471738b_ds_hms300_oct22.pdf', 'https://www.kongsberg.com/contentassets/587a526dc451456eb14a0eb82c31554d/datasheet_avr100.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/587a526dc451456eb14a0eb82c31554d/471738b_ds_hms300_oct22.pdf, https://www.kongsberg.com/contentassets/587a526dc451456eb14a0eb82c31554d/datasheet_avr100.pdf</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1352,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/3d-inspection-of-bridge-sub-structural-elements.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/6a46a7f3ae4d4a52a192636df7d93d9c/3d-inspection-of-bridge-sub-structural-elements.pdf</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1369,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1386,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1403,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1420,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1437,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1454,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1471,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1488,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1505,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/c903ce5249fb4f66bba8825397736c22/476665a-hain-subsea-7000-datasheet.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/c903ce5249fb4f66bba8825397736c22/476665a-hain-subsea-7000-datasheet.pdf</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1522,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/e667920315fb46108af0ff718e180f68/datasheet_kcc.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/e667920315fb46108af0ff718e180f68/datasheet_kcc.pdf</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1539,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/9389e78c01a54fa6bc6a6821de3009f3/110-0040129a_ds_proximityview100_may23.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/9389e78c01a54fa6bc6a6821de3009f3/110-0040129a_ds_proximityview100_may23.pdf</t>
         </is>
       </c>
     </row>
@@ -1616,7 +1556,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/19ab735d43d04dc583f9ad9fb8330e1e/398737_underwater-mapping-brochure_-september-2016_print.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/19ab735d43d04dc583f9ad9fb8330e1e/398737_underwater-mapping-brochure_-september-2016_print.pdf</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1573,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/1a091b5424194147b3b80f43f250ed72/datasheet_spottrack.pdf', 'https://www.kongsberg.com/contentassets/1a091b5424194147b3b80f43f250ed72/datasheet_spottrackprisms.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/1a091b5424194147b3b80f43f250ed72/datasheet_spottrack.pdf, https://www.kongsberg.com/contentassets/1a091b5424194147b3b80f43f250ed72/datasheet_spottrackprisms.pdf</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1590,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/aefda46a15ae491fb71a724a2e4782bd/mbr_family.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/aefda46a15ae491fb71a724a2e4782bd/mbr_family.pdf</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1620,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
         </is>
       </c>
     </row>
@@ -1695,11 +1635,7 @@
           <t>Motion Reference Unit</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1738,11 +1674,7 @@
           <t>Multibeam sonar, M3 Sonar¬Æ</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1755,11 +1687,7 @@
           <t>MW-based Long-range relative position sensor</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1772,11 +1700,7 @@
           <t>MW-based Relative position sensor</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1791,7 +1715,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/390297.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/390297.pdf</t>
         </is>
       </c>
     </row>
@@ -1806,11 +1730,7 @@
           <t>Non-Differential Position Sensors</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1825,7 +1745,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/37784f493caf4b4a9bb8e22133fff5ee/datasheet_blueinsight.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/37784f493caf4b4a9bb8e22133fff5ee/datasheet_blueinsight.pdf</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1801,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/5f4fa3d6d9704fabb3b2ee8282b5a66a/datasheet---m3-sonar-phs-nov.-2018.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/5f4fa3d6d9704fabb3b2ee8282b5a66a/datasheet---m3-sonar-phs-nov.-2018.pdf</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1844,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/1d16a9142d0f46e2b2ee68445583a180/datasheet_blueinsight.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/1d16a9142d0f46e2b2ee68445583a180/datasheet_blueinsight.pdf</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1861,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/33812dcfb17f45ffa4ad34629d464c78/datasheet_blueinsight.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/33812dcfb17f45ffa4ad34629d464c78/datasheet_blueinsight.pdf</t>
         </is>
       </c>
     </row>
@@ -1956,11 +1876,7 @@
           <t>Side scan echo sounder, EA400</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1975,7 +1891,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/120-and-es120/164023_120-25.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/120-and-es120/164023_120-25.pdf</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1908,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_012/12_16_60/sales/12_16_60_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_012/12_16_60/sales/12_16_60_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2009,7 +1925,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_018/18_11/sales/18_11_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_018/18_11/sales/18_11_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2026,7 +1942,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_200/es200_7c/sales/es200_7c_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_200/es200_7c/sales/es200_7c_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2043,7 +1959,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/200-and-es200/164021_200-7f.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/200-and-es200/164021_200-7f.pdf</t>
         </is>
       </c>
     </row>
@@ -2060,7 +1976,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/200-and-es200/164011_200-7g.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/200-and-es200/164011_200-7g.pdf</t>
         </is>
       </c>
     </row>
@@ -2077,7 +1993,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/38_200_combi_c/sales/38_200_combi_c_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_038/38_200_combi_c/sales/38_200_combi_c_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2094,7 +2010,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/38_200_combi_d/sales/38_200_combi_d_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_038/38_200_combi_d/sales/38_200_combi_d_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2027,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/38_7/sales/38_7_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_038/38_7/sales/38_7_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2044,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/38_9/sales/38_9_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_038/38_9/sales/38_9_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2061,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/164052_50-200_combi_c.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/164052_50-200_combi_c.pdf</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2078,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/164211_50-200_combi_d.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/164211_50-200_combi_d.pdf</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2095,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/160965ab.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/160965ab.pdf</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2112,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/160964_50-18por.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/160964_50-18por.pdf</t>
         </is>
       </c>
     </row>
@@ -2213,7 +2129,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/164331ab_50-7_product_specification_english.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/50/164331ab_50-7_product_specification_english.pdf</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2159,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/c-all/sales/c_all_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/c-all/sales/c_all_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2215,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/ek80/sales/ek80_adcp_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/ek80/sales/ek80_adcp_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2245,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/164696ab_ek60_installation_manual_english.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/echo-sounders-and-adcp/ek60/installation/164696ab_ek60_installation_manual_english.pdf</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2262,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_120/es120_18cdk/es120_18cdk_ds_en.pdf']</t>
+          <t>https://www.simrad.online/td_120/es120_18cdk/es120_18cdk_ds_en.pdf</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2279,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_120/es120_7c/es120_7c_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_120/es120_7c/es120_7c_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2296,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>['https://simrad.online/td_120/es120_7cd/es120_7cd_ds_en_a4.pdf']</t>
+          <t>https://simrad.online/td_120/es120_7cd/es120_7cd_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2313,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/120-and-es120/164289_es120-7dd.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/120-and-es120/164289_es120-7dd.pdf</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2330,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/120-and-es120/164125_es120-7g.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/120-and-es120/164125_es120-7g.pdf</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2347,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_018/es18/sales/es18_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_018/es18/sales/es18_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2448,7 +2364,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_200/es200_7c/sales/es200_7c_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_200/es200_7c/sales/es200_7c_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2465,7 +2381,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>['https://simrad.online/td_200/es200_7cd/es200_7cd_ds_en_a4.pdf']</t>
+          <t>https://simrad.online/td_200/es200_7cd/es200_7cd_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2482,7 +2398,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_200/es200_7cdk/sales/es200_7cdk_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_200/es200_7cdk/sales/es200_7cdk_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2415,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_333/es333_7c/es333_7c_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_333/es333_7c/es333_7c_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2516,7 +2432,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>['https://simrad.online/td_333/es333_7cd/es333_7cd_ds_en_a4.pdf']</t>
+          <t>https://simrad.online/td_333/es333_7cd/es333_7cd_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2533,7 +2449,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/es333/429710aa_es333_7cdk_split_data_sheet_english.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/es333/429710aa_es333_7cdk_split_data_sheet_english.pdf</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2466,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/es38_10/sales/es38_10_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_038/es38_10/sales/es38_10_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2483,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/es38_12/sales/es38_12_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_038/es38_12/sales/es38_12_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2500,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/es38_18_200_18c/sales/es38_18_200_18c_ds_en.pdf']</t>
+          <t>https://www.simrad.online/td_038/es38_18_200_18c/sales/es38_18_200_18c_ds_en.pdf</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2517,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/es38_18_200_18cr/sales/es38_18_200_18cr_ds_en.pdf']</t>
+          <t>https://www.simrad.online/td_038/es38_18_200_18cr/sales/es38_18_200_18cr_ds_en.pdf</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2534,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>['https://simrad.online/td_038/es38_18dk/es38_18dk_ds_en.pdf']</t>
+          <t>https://simrad.online/td_038/es38_18dk/es38_18dk_ds_en.pdf</t>
         </is>
       </c>
     </row>
@@ -2635,7 +2551,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/es38_7/sales/es38_7_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_038/es38_7/sales/es38_7_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2652,7 +2568,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/164247ae_es38b_data_sheet_english.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/38-and-es38/es38b/164247ae_es38b_data_sheet_english.pdf</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2585,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_038/es38dd/sales/es38dd_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_038/es38dd/sales/es38dd_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2615,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/70-and-es70/110378ac.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/70-and-es70/110378ac.pdf</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2632,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>['https://simrad.online/td_070/es70_18cd/es70_18cd_ds_en.pdf']</t>
+          <t>https://simrad.online/td_070/es70_18cd/es70_18cd_ds_en.pdf</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2649,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/td_070/es70_7c/sales/es70_7c_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/td_070/es70_7c/sales/es70_7c_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2666,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/discovery/simrad/transducers/70-and-es70/es70_7cd_ds_english.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/discovery/simrad/transducers/70-and-es70/es70_7cd_ds_english.pdf</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2722,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/fx/sales/fx_brochure_en_a4.pdf']</t>
+          <t>https://www.simrad.online/fx/sales/fx_brochure_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2752,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/mf90/sales/mf90_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/mf90/sales/mf90_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2808,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/px/flow/sales/px_flow_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/px/flow/sales/px_flow_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -3026,7 +2942,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/sx90/sales/sx90_ds_english.pdf']</t>
+          <t>https://www.simrad.online/sx90/sales/sx90_ds_english.pdf</t>
         </is>
       </c>
     </row>
@@ -3043,7 +2959,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/sy50/sales/sy50_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/sy50/sales/sy50_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3002,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/160920_transducer_12-16_60.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300863_transducer15_17.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/130404ac_18-11_product_specification_english.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164017_38-7.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164330ab_38-9_product_specification_english.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/160965ab.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164330ab_38-9_product_specification_english.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164023_120-25.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164022_200-28e.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300863_transducer15_17.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/459672a_200-3g_product-sheet.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/422109-transducer-500khz-data-sheet.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300867aa_sidelooking_transducer_200_lr.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/404173_sidescan_transducer_500khz_data_sheet.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164210_38-200_combi_d.pdf', 'https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164211_50-200_combi_d.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/160920_transducer_12-16_60.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300863_transducer15_17.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/130404ac_18-11_product_specification_english.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164017_38-7.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164330ab_38-9_product_specification_english.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/160965ab.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164330ab_38-9_product_specification_english.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164023_120-25.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164022_200-28e.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300863_transducer15_17.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/459672a_200-3g_product-sheet.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/422109-transducer-500khz-data-sheet.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/300867aa_sidelooking_transducer_200_lr.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/404173_sidescan_transducer_500khz_data_sheet.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164210_38-200_combi_d.pdf, https://www.kongsberg.com/contentassets/d106c9aa05de423a8b02cf5fae6d6ad1/164211_50-200_combi_d.pdf</t>
         </is>
       </c>
     </row>
@@ -3101,11 +3017,7 @@
           <t>Single beam echo sounder, EA600 - To 11.000 m</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3120,7 +3032,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/164241ac_en250_product_specific_lr.pdf', 'https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/164821aa_rd301_instruction_manual_lr.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/164241ac_en250_product_specific_lr.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/164821aa_rd301_instruction_manual_lr.pdf</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3049,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_ds_en_a4.pdf', 'https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/hws_ds_en_a4.pdf', 'https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_remote_ds_en_a4.pdf', 'https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_training_ds_en_a4.pdf']</t>
+          <t>https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/hws_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_remote_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_training_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3066,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_ds_en_a4.pdf', 'https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/hws_ds_en_a4.pdf', 'https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_remote_ds_en_a4.pdf', 'https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_training_ds_en_a4.pdf']</t>
+          <t>https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/hws_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_remote_ds_en_a4.pdf, https://www.kongsberg.comhttps://www.kongsbergdiscovery.online/sis/sales/sis_training_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3083,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/e2918278f6864aa094e7628021ac0486/ms-1000-processing-software-brochure.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/e2918278f6864aa094e7628021ac0486/ms-1000-processing-software-brochure.pdf</t>
         </is>
       </c>
     </row>
@@ -3186,11 +3098,7 @@
           <t>Sub-bottom profiler, SBP 120/300</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -3205,7 +3113,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sbp-27-data-sheet.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sbp-27-data-sheet.pdf</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3130,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sbp-29-data-sheet.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/sbp-29-data-sheet.pdf</t>
         </is>
       </c>
     </row>
@@ -3237,11 +3145,7 @@
           <t>Sub-bottom profiler, Topas</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3254,11 +3158,7 @@
           <t>Synthetic Aperture Sonar</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3297,11 +3197,7 @@
           <t>TTC 30 &amp; TTC 10 - Transponders test and configuration units</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
+      <c r="C178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3316,7 +3212,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/contentassets/67e20994629a4f4c859ed11af2f458f8/usv-sounder-productsheet.pdf']</t>
+          <t>https://www.kongsberg.com/contentassets/67e20994629a4f4c859ed11af2f458f8/usv-sounder-productsheet.pdf</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3242,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/ek80/sales/wbat_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/ek80/sales/wbat_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -3363,7 +3259,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/ek80/sales/wbt_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/ek80/sales/wbt_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -3380,7 +3276,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/ek80/sales/wbt_mini_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/ek80/sales/wbt_mini_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3293,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>['https://www.simrad.online/ek80/sales/wbt_tube_ds_en_a4.pdf']</t>
+          <t>https://www.simrad.online/ek80/sales/wbt_tube_ds_en_a4.pdf</t>
         </is>
       </c>
     </row>
@@ -3505,7 +3401,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf', 'https://www.kongsberg.com/contentassets/85abd294cac147f48502c9da6209348f/57.dm_2p_11.04.19.pdf', 'https://www.kongsberg.com/contentassets/85abd294cac147f48502c9da6209348f/56.dm_2p_11.04.19.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf, https://www.kongsberg.com/contentassets/85abd294cac147f48502c9da6209348f/57.dm_2p_11.04.19.pdf, https://www.kongsberg.com/contentassets/85abd294cac147f48502c9da6209348f/56.dm_2p_11.04.19.pdf</t>
         </is>
       </c>
     </row>
@@ -3522,7 +3418,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3435,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>['https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf']</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf</t>
         </is>
       </c>
     </row>

--- a/data/data_sheets.xlsx
+++ b/data/data_sheets.xlsx
@@ -461,7 +461,11 @@
           <t>Acoustic control system for BOP operation</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/acs500-emergency-acoustic-bop-control-system/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/acs500-transducer-selection-guide/</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -474,7 +478,11 @@
           <t>AIS physical shore stations</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/contentassets/ce398b77c82a49b78da71cab3dbe06ab/datasheet_aisbs600.pdf, https://www.kongsberg.com/contentassets/ce398b77c82a49b78da71cab3dbe06ab/411069d_ds_aisbs610_dec22.pdf, https://www.kongsberg.com/contentassets/ce398b77c82a49b78da71cab3dbe06ab/datasheet_aisaq610.pdf, https://www.kongsberg.com/contentassets/ce398b77c82a49b78da71cab3dbe06ab/datasheet_aisrx610.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -534,7 +542,11 @@
           <t>APOS - Operating station for HiPAP and HPR Acoustic positioning systems</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/apos-survey---surveyors-independent-operator-station-for-hipap/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -596,7 +608,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/9a7a2014928540309caa9552b55e4b42/01.marine-robots-2p-03.09.21.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/hugin-product-specification/, https://www.kongsberg.com/contentassets/9a7a2014928540309caa9552b55e4b42/01.marine-robots-2p-03.09.21.pdf</t>
         </is>
       </c>
     </row>
@@ -679,7 +691,11 @@
           <t>cNODE - Modem Embedable</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-modem-embed/</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -692,7 +708,11 @@
           <t>cNODE - Modem Explorer</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-modem-explorer/</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -724,7 +744,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/1de6d234d15c4a31a1b4387a05e5a2bb/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/425498c_cnode_modem_minis_datasheet.pdf</t>
         </is>
       </c>
     </row>
@@ -739,7 +759,11 @@
           <t>cNODE - Transponder, Embedable</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-embed---transponder-electronic-module/</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -754,7 +778,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-maxi-31-exd/</t>
         </is>
       </c>
     </row>
@@ -786,7 +810,11 @@
           <t>cNODE IQAM - Intelligent data analysis and monitoring</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-iqam---intelligent-data-analysis-and-monitoring/</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -799,7 +827,11 @@
           <t>cNODE Maxi - Transponder</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-maxi-and-midi-transponders---medium-frequency-4000m/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-gyro-endcap-module/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-sound-velocity-pressure-and-inclinometer-sensor-module/</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -814,7 +846,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/contentassets/8cc479c87025451288686c14a0dad04c/435239d-cnode-micro-battery-safety.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-micro-transponder/</t>
         </is>
       </c>
     </row>
@@ -831,7 +863,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-gyro-endcap-module/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-maxi-and-midi-transponders---medium-frequency-4000m/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/cnode-sound-velocity-pressure-and-inclinometer-sensor-module/</t>
         </is>
       </c>
     </row>
@@ -848,7 +880,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/contentassets/d46aa1b46c7c495eacd1c70f4f768087/378499-cnode-mini-prod-spec.pdf</t>
         </is>
       </c>
     </row>
@@ -899,7 +931,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/57a857b841ea412b935571193488b6c7/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/contentassets/02b1e7fdc9724b4d83eab94c01953760/470493a-cpap-mk-ii-datasheet.pdf</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1061,11 @@
           <t>Echo sounder sweep system, MCU</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea-mcu---flachenecholot/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/single-beam-echo-sounder-sweep-system_ea-mcu/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/single-beam-operator-station-hydrographic-operator-station/</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1104,7 +1140,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/464489ae_hws_mc3xx_data_sheet_02.pdf, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/446295c_sis5_data_sheet.pdf, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/01.sis-remote-2p-26.05.21.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/em-124-multibeam-echo-sounder/, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/464489ae_hws_mc3xx_data_sheet_02.pdf, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/446295c_sis5_data_sheet.pdf, https://www.kongsberg.com/contentassets/fc4a27883f1d4d3a86775c4f483b323b/01.sis-remote-2p-26.05.21.pdf</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1172,11 @@
           <t xml:space="preserve">EM 2040 PHS Portable Hydrographic System </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/contentassets/e7694c05ba004432a68c918dff57c1fb/multibeam-intensity-v2022.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1149,7 +1189,11 @@
           <t>EM 2040C MKII Multibeam echosounder, Max. 500 m</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/contentassets/94ea2adb75394001a54d852d0920b420/443809ad_em2040c_mk2_data_sheet_slim_pu.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1196,7 +1240,11 @@
           <t>EM 304 Multibeam echosounder, Max. 8000 m</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/em-304-multibeam-echosounder/Download</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1226,7 +1274,11 @@
           <t>Fish farm information transfer system</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/aqualink/</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1269,7 +1321,11 @@
           <t>GNSS/DGNSS Position Sensors</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dpsi1_aug22.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/443866f_ds_dpsi2.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/110-0048136_ds_a---dpsi3.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/110-0012621b_dpsi4_ds_oct22.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/110-0048137_ds_a---dpsi6.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dps5d.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dgnss3710.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dpsdisplayunit.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dps112.pdf, https://www.kongsberg.com/contentassets/194b748672de4f2f9f1104774e91abd6/datasheet_dps114.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1369,7 +1425,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/apos-trainer/</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1442,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/hipap-102p/</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1459,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/apos-trainer/Download</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1476,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/hipap-352p-product-sheet.pdf</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1493,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/apos-trainer/Download</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1510,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/apos-trainer/</t>
         </is>
       </c>
     </row>
@@ -1471,7 +1527,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/164085ac_apostrainer_product_specification.pdf</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1646,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/contentassets/aefda46a15ae491fb71a724a2e4782bd/mbr_family.pdf</t>
+          <t>https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_personal.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_submersible.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_uav_jun23.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144_oem.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mkii.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mk2portable.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2portable.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144fcc_sep22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144fcc_submersible_sep22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr144fcc_oem_aug22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mk2fcc_aug22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr179mk2fccportable_aug22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2_fcc_aug22.pdf, https://www.kongsberg.com/contentassets/a1b8bf7c95d84236a8089a8a691a0e6d/datasheet_mbr189mk2fccportable_aug22.pdf</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1676,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/405264-subsea-construction.pdf</t>
+          <t>https://www.kongsberg.com/contentassets/74abdf0f29314872b3647153edb20114/393495l-pap-datasheet.pdf, https://www.kongsberg.com/contentassets/74abdf0f29314872b3647153edb20114/481073b-pap-201-c-datasheet.pdf</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1691,11 @@
           <t>Motion Reference Unit</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru2.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru3.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru5.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mru5mkii.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mrud.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mrue.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mruh.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/datasheet_mrus.pdf, https://www.kongsberg.com/contentassets/77678b37b4c94d51bbfd7d8abdf82c73/461546b_datasheet_mgc_recal_nov23.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1687,7 +1747,11 @@
           <t>MW-based Long-range relative position sensor</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/contentassets/ebe8c6b9dc3c49eeb5963a5518c1646e/110-0027778a_datasheet_xpr100_feb23.pdf, https://www.kongsberg.com/contentassets/ebe8c6b9dc3c49eeb5963a5518c1646e/110-0027790a_datasheet_xpr100ex_feb23.pdf, https://www.kongsberg.com/contentassets/ebe8c6b9dc3c49eeb5963a5518c1646e/110-0027949a_datasheet_xpr100exlp_feb23.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1700,7 +1764,11 @@
           <t>MW-based Relative position sensor</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/110-0030758b_datasheet_radius2000_mar23.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius550x.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius600x.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius700.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius700x.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radius800x.pdf, https://www.kongsberg.com/contentassets/afb048f8c2584b379af4b51eed83d2e7/datasheet_radiusexbattery.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1730,7 +1798,11 @@
           <t>Non-Differential Position Sensors</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/contentassets/68318fe026694f74bb05408ffdbb34a7/datasheet_dpsi2.pdf, https://www.kongsberg.com/contentassets/68318fe026694f74bb05408ffdbb34a7/datasheet_dpsi4.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1876,7 +1948,11 @@
           <t>Side scan echo sounder, EA400</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/200-khz---0.5x49-side-looking-echo-sounder-transducer, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea400-hydrographic-single-beam-echo-sounder/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea400-survey-single-beam-echo-sounder/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea400_600-sidescan-single-beam-echo-sounder/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea400sp-portable-splashproof-single-beam-echo-sounder/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/single-beam-operator-station-hydrographic-operator-station/</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3017,7 +3093,11 @@
           <t>Single beam echo sounder, EA600 - To 11.000 m</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/200-khz---0.5x49-side-looking-echo-sounder-transducer, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea400_600-sidescan-single-beam-echo-sounder/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ea600-hydrographic-single-beam-echo-sounder/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/rd-301-echo-sounder-remote-display/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/single-beam-operator-station-hydrographic-operator-station/</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3145,7 +3225,11 @@
           <t>Sub-bottom profiler, Topas</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/contentassets/5d74ac17037e48d383900f89d4f9557b/482731a-topas-ps120-datasheet.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/topas-ps-18-parametric-sub-bottom-profiler.pdf, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/topas-ps-40-parametric-sub-bottom-profiler.pdf</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -3197,7 +3281,11 @@
           <t>TTC 30 &amp; TTC 10 - Transponders test and configuration units</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/transponder-test-and-configuration-tool---ttc-light/, https://www.kongsberg.com/globalassets/maritime/km-products/product-documents/ttc-30-and-ttc-10-transponder-test-and-configuration-unit/</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3401,7 +3489,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf, https://www.kongsberg.com/contentassets/85abd294cac147f48502c9da6209348f/57.dm_2p_11.04.19.pdf, https://www.kongsberg.com/contentassets/85abd294cac147f48502c9da6209348f/56.dm_2p_11.04.19.pdf</t>
+          <t>https://www.kongsberg.com/contentassets/fcb884f931154ae9a97e4f87c1bc39c8/datasheet_ebird.pdf</t>
         </is>
       </c>
     </row>
@@ -3418,7 +3506,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf</t>
+          <t>https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack220.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack222.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack222b.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seatrack320_oct18.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seadiff300.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seadiff320.pdf, https://www.kongsberg.com/contentassets/4147baa3ebf2431f8727ee50d889df87/datasheet_seadiff380.pdf</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3523,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>https://www.kongsberg.com/globalassets/maritime/km-products/documents/seismic_brochure.pdf</t>
+          <t>https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seatrack320.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seatrack330.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seatrack332.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seadiff300.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seadiff320.pdf, https://www.kongsberg.com/contentassets/5eb085fbd30f4ef18284e58ac1b670c5/datasheet_seadiff380.pdf</t>
         </is>
       </c>
     </row>
